--- a/Lab01/Lab1 Diode Circuits I.xlsx
+++ b/Lab01/Lab1 Diode Circuits I.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\94384\Desktop\EIE341_Analog_Circuit_Report\Lab01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2109451-853A-4D0F-8631-2E45E5211744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC86AC30-0CD8-4447-9CDB-0F421F61554E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3340" yWindow="3340" windowWidth="19200" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18480" yWindow="3930" windowWidth="10320" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t>a)</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -66,6 +66,22 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>I</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1N4148</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SR160</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1N41728A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>2R=1965.3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -74,6 +90,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Vgama=0.5519V</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>0.25m</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -138,6 +158,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Vgama Up=0.5519V</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vgama Right = 0.544V</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>r=51.2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -159,18 +187,6 @@
   </si>
   <si>
     <t>.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vγ Right = 0.544V</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vγ Up=0.5519V</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vγ=0.5519V</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -316,7 +332,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$18</c:f>
+              <c:f>Sheet1!$A$36</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -349,7 +365,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$17:$X$17</c:f>
+              <c:f>Sheet1!$B$35:$X$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -427,7 +443,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$18:$X$18</c:f>
+              <c:f>Sheet1!$B$36:$X$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -1257,16 +1273,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>282398</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>114652</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1157287</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>142873</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>268464</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>354</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1559,699 +1575,722 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="61" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.4140625" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.75" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.25" customWidth="1"/>
+    <col min="3" max="3" width="19.25" customWidth="1"/>
+    <col min="4" max="4" width="18.25" customWidth="1"/>
+    <col min="5" max="5" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>0.1653</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>-1</v>
+      </c>
+      <c r="C14">
+        <v>-0.8</v>
+      </c>
+      <c r="D14">
+        <v>-0.6</v>
+      </c>
+      <c r="E14">
+        <v>-0.4</v>
+      </c>
+      <c r="F14">
+        <v>-0.2</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0.2</v>
+      </c>
+      <c r="I14">
+        <v>0.4</v>
+      </c>
+      <c r="J14">
+        <v>0.6</v>
+      </c>
+      <c r="K14">
+        <v>0.8</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.2</v>
+      </c>
+      <c r="N14">
+        <v>1.4</v>
+      </c>
+      <c r="O14">
+        <v>1.6</v>
+      </c>
+      <c r="P14">
+        <v>1.8</v>
+      </c>
+      <c r="Q14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M15" t="s">
+        <v>19</v>
+      </c>
+      <c r="N15" t="s">
+        <v>20</v>
+      </c>
+      <c r="O15" t="s">
+        <v>21</v>
+      </c>
+      <c r="P15">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="Q15">
+        <v>0.47299999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>-1</v>
+      </c>
+      <c r="C18">
+        <v>-0.8</v>
+      </c>
+      <c r="D18">
+        <v>-0.6</v>
+      </c>
+      <c r="E18">
+        <v>-0.4</v>
+      </c>
+      <c r="F18">
+        <v>-0.2</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0.2</v>
+      </c>
+      <c r="I18">
+        <v>0.4</v>
+      </c>
+      <c r="J18">
+        <v>0.6</v>
+      </c>
+      <c r="K18">
+        <v>0.8</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1.2</v>
+      </c>
+      <c r="N18">
+        <v>1.4</v>
+      </c>
+      <c r="O18">
+        <v>1.6</v>
+      </c>
+      <c r="P18">
+        <v>1.8</v>
+      </c>
+      <c r="Q18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>-0.752</v>
+      </c>
+      <c r="C19">
+        <v>-0.60099999999999998</v>
+      </c>
+      <c r="D19">
+        <v>-0.44700000000000001</v>
+      </c>
+      <c r="E19">
+        <v>-0.29899999999999999</v>
+      </c>
+      <c r="F19">
+        <v>-0.15</v>
+      </c>
+      <c r="G19">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+      <c r="H19" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="J19" t="s">
+        <v>28</v>
+      </c>
+      <c r="K19" t="s">
+        <v>27</v>
+      </c>
+      <c r="L19" t="s">
+        <v>26</v>
+      </c>
+      <c r="M19" t="s">
+        <v>25</v>
+      </c>
+      <c r="N19" t="s">
+        <v>24</v>
+      </c>
+      <c r="O19" t="s">
+        <v>23</v>
+      </c>
+      <c r="P19">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="Q19">
+        <v>1.036</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>-4</v>
+      </c>
+      <c r="C22">
+        <v>-3.5</v>
+      </c>
+      <c r="D22">
+        <v>-3</v>
+      </c>
+      <c r="E22">
+        <v>-2.5</v>
+      </c>
+      <c r="F22">
+        <v>-2</v>
+      </c>
+      <c r="G22">
+        <v>-1.5</v>
+      </c>
+      <c r="H22">
+        <v>-1</v>
+      </c>
+      <c r="I22">
+        <v>-0.5</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0.5</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1.5</v>
+      </c>
+      <c r="N22">
+        <v>2</v>
+      </c>
+      <c r="O22">
+        <v>2.5</v>
+      </c>
+      <c r="P22">
+        <v>3</v>
+      </c>
+      <c r="Q22">
+        <v>3.5</v>
+      </c>
+      <c r="R22">
+        <v>4</v>
+      </c>
+      <c r="S22">
+        <v>4.5</v>
+      </c>
+      <c r="T22">
+        <v>5</v>
+      </c>
+      <c r="U22">
+        <v>5.5</v>
+      </c>
+      <c r="V22">
+        <v>6</v>
+      </c>
+      <c r="W22">
+        <v>6.5</v>
+      </c>
+      <c r="X22">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>33</v>
-      </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>-1</v>
-      </c>
-      <c r="C3">
-        <v>-0.8</v>
-      </c>
-      <c r="D3">
-        <v>-0.6</v>
-      </c>
-      <c r="E3">
-        <v>-0.4</v>
-      </c>
-      <c r="F3">
-        <v>-0.2</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0.2</v>
-      </c>
-      <c r="I3">
-        <v>0.4</v>
-      </c>
-      <c r="J3">
-        <v>0.6</v>
-      </c>
-      <c r="K3">
-        <v>0.8</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>1.2</v>
-      </c>
-      <c r="N3">
-        <v>1.4</v>
-      </c>
-      <c r="O3">
-        <v>1.6</v>
-      </c>
-      <c r="P3">
-        <v>1.8</v>
-      </c>
-      <c r="Q3">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>2</v>
       </c>
+      <c r="B23">
+        <v>-1.7390000000000001</v>
+      </c>
+      <c r="C23">
+        <v>-1.5660000000000001</v>
+      </c>
+      <c r="D23">
+        <v>-1.3939999999999999</v>
+      </c>
+      <c r="E23">
+        <v>-1.2170000000000001</v>
+      </c>
+      <c r="F23">
+        <v>-1.0389999999999999</v>
+      </c>
+      <c r="G23">
+        <v>-0.85399999999999998</v>
+      </c>
+      <c r="H23">
+        <v>-0.65600000000000003</v>
+      </c>
+      <c r="I23">
+        <v>-0.372</v>
+      </c>
+      <c r="J23">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+      <c r="K23">
+        <v>0.374</v>
+      </c>
+      <c r="L23">
+        <v>0.752</v>
+      </c>
+      <c r="M23">
+        <v>1.1240000000000001</v>
+      </c>
+      <c r="N23">
+        <v>1.5029999999999999</v>
+      </c>
+      <c r="O23">
+        <v>1.877</v>
+      </c>
+      <c r="P23">
+        <v>2.2519999999999998</v>
+      </c>
+      <c r="Q23">
+        <v>2.6219999999999999</v>
+      </c>
+      <c r="R23">
+        <v>2.9940000000000002</v>
+      </c>
+      <c r="S23">
+        <v>3.363</v>
+      </c>
+      <c r="T23">
+        <v>3724</v>
+      </c>
+      <c r="U23">
+        <v>4.0890000000000004</v>
+      </c>
+      <c r="V23">
+        <v>4.45</v>
+      </c>
+      <c r="W23">
+        <v>4.8120000000000003</v>
+      </c>
+      <c r="X23">
+        <v>5.173</v>
+      </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4" t="s">
-        <v>14</v>
-      </c>
-      <c r="N4" t="s">
-        <v>15</v>
-      </c>
-      <c r="O4" t="s">
-        <v>16</v>
-      </c>
-      <c r="P4">
-        <v>0.40699999999999997</v>
-      </c>
-      <c r="Q4">
-        <v>0.47299999999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>-1</v>
-      </c>
-      <c r="C7">
-        <v>-0.8</v>
-      </c>
-      <c r="D7">
-        <v>-0.6</v>
-      </c>
-      <c r="E7">
-        <v>-0.4</v>
-      </c>
-      <c r="F7">
-        <v>-0.2</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0.2</v>
-      </c>
-      <c r="I7">
-        <v>0.4</v>
-      </c>
-      <c r="J7">
-        <v>0.6</v>
-      </c>
-      <c r="K7">
-        <v>0.8</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1.2</v>
-      </c>
-      <c r="N7">
-        <v>1.4</v>
-      </c>
-      <c r="O7">
-        <v>1.6</v>
-      </c>
-      <c r="P7">
-        <v>1.8</v>
-      </c>
-      <c r="Q7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8">
-        <v>-0.752</v>
-      </c>
-      <c r="C8">
-        <v>-0.60099999999999998</v>
-      </c>
-      <c r="D8">
-        <v>-0.44700000000000001</v>
-      </c>
-      <c r="E8">
-        <v>-0.29899999999999999</v>
-      </c>
-      <c r="F8">
-        <v>-0.15</v>
-      </c>
-      <c r="G8">
-        <v>-6.0000000000000001E-3</v>
-      </c>
-      <c r="H8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8">
-        <v>0.29799999999999999</v>
-      </c>
-      <c r="J8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M8" t="s">
-        <v>20</v>
-      </c>
-      <c r="N8" t="s">
-        <v>19</v>
-      </c>
-      <c r="O8" t="s">
-        <v>18</v>
-      </c>
-      <c r="P8">
-        <v>0.96299999999999997</v>
-      </c>
-      <c r="Q8">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11">
-        <v>-4</v>
-      </c>
-      <c r="C11">
-        <v>-3.5</v>
-      </c>
-      <c r="D11">
-        <v>-3</v>
-      </c>
-      <c r="E11">
-        <v>-2.5</v>
-      </c>
-      <c r="F11">
-        <v>-2</v>
-      </c>
-      <c r="G11">
-        <v>-1.5</v>
-      </c>
-      <c r="H11">
-        <v>-1</v>
-      </c>
-      <c r="I11">
-        <v>-0.5</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0.5</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>1.5</v>
-      </c>
-      <c r="N11">
-        <v>2</v>
-      </c>
-      <c r="O11">
-        <v>2.5</v>
-      </c>
-      <c r="P11">
-        <v>3</v>
-      </c>
-      <c r="Q11">
-        <v>3.5</v>
-      </c>
-      <c r="R11">
-        <v>4</v>
-      </c>
-      <c r="S11">
-        <v>4.5</v>
-      </c>
-      <c r="T11">
-        <v>5</v>
-      </c>
-      <c r="U11">
-        <v>5.5</v>
-      </c>
-      <c r="V11">
-        <v>6</v>
-      </c>
-      <c r="W11">
-        <v>6.5</v>
-      </c>
-      <c r="X11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12">
-        <v>-1.7390000000000001</v>
-      </c>
-      <c r="C12">
-        <v>-1.5660000000000001</v>
-      </c>
-      <c r="D12">
-        <v>-1.3939999999999999</v>
-      </c>
-      <c r="E12">
-        <v>-1.2170000000000001</v>
-      </c>
-      <c r="F12">
-        <v>-1.0389999999999999</v>
-      </c>
-      <c r="G12">
-        <v>-0.85399999999999998</v>
-      </c>
-      <c r="H12">
-        <v>-0.65600000000000003</v>
-      </c>
-      <c r="I12">
-        <v>-0.372</v>
-      </c>
-      <c r="J12">
-        <v>-6.0000000000000001E-3</v>
-      </c>
-      <c r="K12">
-        <v>0.374</v>
-      </c>
-      <c r="L12">
-        <v>0.752</v>
-      </c>
-      <c r="M12">
-        <v>1.1240000000000001</v>
-      </c>
-      <c r="N12">
-        <v>1.5029999999999999</v>
-      </c>
-      <c r="O12">
-        <v>1.877</v>
-      </c>
-      <c r="P12">
-        <v>2.2519999999999998</v>
-      </c>
-      <c r="Q12">
-        <v>2.6219999999999999</v>
-      </c>
-      <c r="R12">
-        <v>2.9940000000000002</v>
-      </c>
-      <c r="S12">
-        <v>3.363</v>
-      </c>
-      <c r="T12">
-        <v>3724</v>
-      </c>
-      <c r="U12">
-        <v>4.0890000000000004</v>
-      </c>
-      <c r="V12">
-        <v>4.45</v>
-      </c>
-      <c r="W12">
-        <v>4.8120000000000003</v>
-      </c>
-      <c r="X12">
-        <v>5.173</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B14">
-        <f>1/3*B11-2/3*0.55</f>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <f>1/3*B22-2/3*0.55</f>
         <v>-1.7</v>
       </c>
-      <c r="C14">
-        <f t="shared" ref="C14:E14" si="0">1/3*C11-2/3*0.55</f>
+      <c r="C25">
+        <f t="shared" ref="C25:E25" si="0">1/3*C22-2/3*0.55</f>
         <v>-1.5333333333333332</v>
       </c>
-      <c r="D14">
+      <c r="D25">
         <f t="shared" si="0"/>
         <v>-1.3666666666666667</v>
       </c>
-      <c r="E14">
+      <c r="E25">
         <f t="shared" si="0"/>
         <v>-1.2</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>5</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" t="s">
-        <v>28</v>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" t="s">
+        <v>37</v>
+      </c>
+      <c r="F34" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>1</v>
       </c>
-      <c r="B17">
+      <c r="B35">
         <v>-4</v>
       </c>
-      <c r="C17">
+      <c r="C35">
         <v>-3.5</v>
       </c>
-      <c r="D17">
+      <c r="D35">
         <v>-3</v>
       </c>
-      <c r="E17">
+      <c r="E35">
         <v>-2.5</v>
       </c>
-      <c r="F17">
+      <c r="F35">
         <v>-2</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G35" s="1">
         <v>-1.5</v>
       </c>
-      <c r="H17">
+      <c r="H35">
         <v>-1</v>
       </c>
-      <c r="I17">
+      <c r="I35">
         <v>-0.5</v>
       </c>
-      <c r="J17">
+      <c r="J35">
         <v>0</v>
       </c>
-      <c r="K17">
+      <c r="K35">
         <v>0.5</v>
       </c>
-      <c r="L17">
+      <c r="L35">
         <v>1</v>
       </c>
-      <c r="M17">
+      <c r="M35">
         <v>1.5</v>
       </c>
-      <c r="N17">
+      <c r="N35">
         <v>2</v>
       </c>
-      <c r="O17">
+      <c r="O35">
         <v>2.5</v>
       </c>
-      <c r="P17">
+      <c r="P35">
         <v>3</v>
       </c>
-      <c r="Q17">
+      <c r="Q35">
         <v>3.5</v>
       </c>
-      <c r="R17" s="1">
+      <c r="R35" s="1">
         <v>4</v>
       </c>
-      <c r="S17">
+      <c r="S35">
         <v>4.5</v>
       </c>
-      <c r="T17">
+      <c r="T35">
         <v>5</v>
       </c>
-      <c r="U17">
+      <c r="U35">
         <v>5.5</v>
       </c>
-      <c r="V17">
+      <c r="V35">
         <v>6</v>
       </c>
-      <c r="W17">
+      <c r="W35">
         <v>6.5</v>
       </c>
-      <c r="X17">
+      <c r="X35">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>2</v>
       </c>
-      <c r="B18">
+      <c r="B36">
         <v>-3.1909999999999998</v>
       </c>
-      <c r="C18">
+      <c r="C36">
         <v>-2.8170000000000002</v>
       </c>
-      <c r="D18">
+      <c r="D36">
         <v>-2.44</v>
       </c>
-      <c r="E18">
+      <c r="E36">
         <v>-2.0619999999999998</v>
       </c>
-      <c r="F18">
+      <c r="F36">
         <v>-1.6870000000000001</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G36" s="1">
         <v>-1.304</v>
       </c>
-      <c r="H18">
+      <c r="H36">
         <v>-0.95009999999999994</v>
       </c>
-      <c r="I18">
+      <c r="I36">
         <v>-0.44900000000000001</v>
       </c>
-      <c r="J18">
+      <c r="J36">
         <v>0.01</v>
       </c>
-      <c r="K18">
+      <c r="K36">
         <v>0.44500000000000001</v>
       </c>
-      <c r="L18">
+      <c r="L36">
         <v>0.89700000000000002</v>
       </c>
-      <c r="M18">
+      <c r="M36">
         <v>1.34</v>
       </c>
-      <c r="N18">
+      <c r="N36">
         <v>1.7929999999999999</v>
       </c>
-      <c r="O18">
+      <c r="O36">
         <v>2.23</v>
       </c>
-      <c r="P18">
+      <c r="P36">
         <v>2.6880000000000002</v>
       </c>
-      <c r="Q18">
+      <c r="Q36">
         <v>3.1339999999999999</v>
       </c>
-      <c r="R18" s="1">
+      <c r="R36" s="1">
         <v>3.5750000000000002</v>
       </c>
-      <c r="S18">
+      <c r="S36">
         <v>4.0140000000000002</v>
       </c>
-      <c r="T18">
+      <c r="T36">
         <v>4.444</v>
       </c>
-      <c r="U18">
+      <c r="U36">
         <v>4.8609999999999998</v>
       </c>
-      <c r="V18">
+      <c r="V36">
         <v>5.2720000000000002</v>
       </c>
-      <c r="W18">
+      <c r="W36">
         <v>5.681</v>
       </c>
-      <c r="X18">
+      <c r="X36">
         <v>6.0810000000000004</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B19">
-        <f t="shared" ref="B19:E19" si="1">3/4*(B17+0.666)-0.666</f>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <f t="shared" ref="B37:E37" si="1">3/4*(B35+0.666)-0.666</f>
         <v>-3.1665000000000001</v>
       </c>
-      <c r="C19">
+      <c r="C37">
         <f t="shared" si="1"/>
         <v>-2.7915000000000001</v>
       </c>
-      <c r="D19">
+      <c r="D37">
         <f t="shared" si="1"/>
         <v>-2.4165000000000001</v>
       </c>
-      <c r="E19">
+      <c r="E37">
         <f t="shared" si="1"/>
         <v>-2.0415000000000001</v>
       </c>
-      <c r="F19">
-        <f>3/4*(F17+0.666)-0.666</f>
+      <c r="F37">
+        <f>3/4*(F35+0.666)-0.666</f>
         <v>-1.6665000000000001</v>
       </c>
-      <c r="G19" s="1">
-        <f>3/4*(G17+0.666)-0.666</f>
+      <c r="G37" s="1">
+        <f>3/4*(G35+0.666)-0.666</f>
         <v>-1.2915000000000001</v>
       </c>
-      <c r="H19">
-        <f>9/10*H17</f>
+      <c r="H37">
+        <f>9/10*H35</f>
         <v>-0.9</v>
       </c>
-      <c r="I19">
-        <f t="shared" ref="I19:Q19" si="2">9/10*I17</f>
+      <c r="I37">
+        <f t="shared" ref="I37:Q37" si="2">9/10*I35</f>
         <v>-0.45</v>
       </c>
-      <c r="J19">
+      <c r="J37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K19">
+      <c r="K37">
         <f t="shared" si="2"/>
         <v>0.45</v>
       </c>
-      <c r="L19">
+      <c r="L37">
         <f t="shared" si="2"/>
         <v>0.9</v>
       </c>
-      <c r="M19">
+      <c r="M37">
         <f t="shared" si="2"/>
         <v>1.35</v>
       </c>
-      <c r="N19">
+      <c r="N37">
         <f t="shared" si="2"/>
         <v>1.8</v>
       </c>
-      <c r="O19">
+      <c r="O37">
         <f t="shared" si="2"/>
         <v>2.25</v>
       </c>
-      <c r="P19">
+      <c r="P37">
         <f t="shared" si="2"/>
         <v>2.7</v>
       </c>
-      <c r="Q19">
+      <c r="Q37">
         <f t="shared" si="2"/>
         <v>3.15</v>
       </c>
-      <c r="R19" s="1">
-        <f>3/4*(R17-2.269)+2.269</f>
+      <c r="R37" s="1">
+        <f>3/4*(R35-2.269)+2.269</f>
         <v>3.56725</v>
       </c>
-      <c r="S19" s="1">
-        <f t="shared" ref="S19:X19" si="3">3/4*(S17-2.269)+2.269</f>
+      <c r="S37" s="1">
+        <f t="shared" ref="S37:X37" si="3">3/4*(S35-2.269)+2.269</f>
         <v>3.94225</v>
       </c>
-      <c r="T19" s="1">
+      <c r="T37" s="1">
         <f t="shared" si="3"/>
         <v>4.3172499999999996</v>
       </c>
-      <c r="U19" s="1">
+      <c r="U37" s="1">
         <f t="shared" si="3"/>
         <v>4.6922499999999996</v>
       </c>
-      <c r="V19" s="1">
+      <c r="V37" s="1">
         <f t="shared" si="3"/>
         <v>5.0672499999999996</v>
       </c>
-      <c r="W19" s="1">
+      <c r="W37" s="1">
         <f t="shared" si="3"/>
         <v>5.4422499999999996</v>
       </c>
-      <c r="X19" s="1">
+      <c r="X37" s="1">
         <f t="shared" si="3"/>
         <v>5.8172499999999996</v>
       </c>
     </row>
-    <row r="41" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="N41" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
